--- a/Config/JP/Checklist_JP.xlsx
+++ b/Config/JP/Checklist_JP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EC2FED-8E45-4C0F-898C-29B4E44608B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B2BDB-7133-41BC-8A8C-3DCBB2A4903E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Explanation</t>
     <phoneticPr fontId="6"/>
@@ -869,64 +869,60 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Low</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Medium</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>High</t>
+    <t>Undocumented default click</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\UndocumentedDefaultClick.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Since they do not depend on the mouse driver, the properties SimulateClick and SendWindowMessages provide a faster and more robust way to perform clicks, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Use SimulateClick or SendWindowMessages if the target control supports it.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Undocumented default type</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\UndocumentedDefaultType.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Since they do not depend on the keyboard driver, the properties SimulateType and SendWindowMessages provide a faster and more robust way to perform typing actions, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Use SimulateType or SendWindowMessages if the target control supports it.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Undocumented unreachable activities</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Checks\UndocumentedUnreachableActivities.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Action</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Severity</t>
+    <t>Fix</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Medium</t>
+    <t>Double check</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Undocumented default click</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedDefaultClick.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Since they do not depend on the mouse driver, the properties SimulateClick and SendWindowMessages provide a faster and more robust way to perform clicks, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Use SimulateClick or SendWindowMessages if the target control supports it.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Undocumented default type</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedDefaultType.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Since they do not depend on the keyboard driver, the properties SimulateType and SendWindowMessages provide a faster and more robust way to perform typing actions, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Use SimulateType or SendWindowMessages if the target control supports it.</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Undocumented unreachable activities</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedUnreachableActivities.xaml</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2259,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2288,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -2309,7 +2305,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -2330,7 +2326,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>23</v>
@@ -2351,7 +2347,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>26</v>
@@ -2372,7 +2368,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2395,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>33</v>
@@ -2418,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>34</v>
@@ -2432,20 +2428,20 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="150">
@@ -2453,20 +2449,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="206.25">
@@ -2483,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2504,7 +2500,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>41</v>
@@ -2518,14 +2514,14 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>44</v>
@@ -2823,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -2844,7 +2840,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>46</v>

--- a/Config/JP/Checklist_JP.xlsx
+++ b/Config/JP/Checklist_JP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B2BDB-7133-41BC-8A8C-3DCBB2A4903E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8CE84-FB7B-4814-A2D1-3A20DCE530F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ワークフロー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Explanation</t>
     <phoneticPr fontId="6"/>
@@ -43,46 +43,14 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\MissingWorkflowAnnotation.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\MissingScreenshot.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedDelay.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\EmptyCatchBlock.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\VariableNamingConvention.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(^(dt_)*([A-Z][a-z0-9]*)+$)</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Checks\ArgumentNamingConvention.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(^(in_|out_|io_)(dt_)*([A-Z][a-z0-9]*)+)</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Checks\LargeIdxInSelector.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\ProjectJsonConfigurationFile.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Run</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -92,10 +60,6 @@
   <si>
     <t>Issue</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Checks\UnnecessarySequenceOrFlowchart.xaml</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>最上位階層のアクティビティ（基本的にFlowchartやSequence）には、ワークフローの目的・概要を簡潔に注釈することを推奨します。これにより、開発者はワークフローの目的・インプット・アウトプット・前提条件を素早く把握することができます。</t>
@@ -865,22 +829,10 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Severity</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Medium</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Undocumented default click</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\UndocumentedDefaultClick.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Since they do not depend on the mouse driver, the properties SimulateClick and SendWindowMessages provide a faster and more robust way to perform clicks, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -893,10 +845,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Checks\UndocumentedDefaultType.xaml</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Since they do not depend on the keyboard driver, the properties SimulateType and SendWindowMessages provide a faster and more robust way to perform typing actions, so they should be used whenever possible. Alternatively, add an annotation in case the control does not support such properties. For more about input methods, refer to https://studio.uipath.com/docs/ui-automation#section-input-methods</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -906,10 +854,6 @@
   </si>
   <si>
     <t>Undocumented unreachable activities</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Checks\UndocumentedUnreachableActivities.xaml</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -923,6 +867,54 @@
   <si>
     <t>Double check</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\MissingWorkflowAnnotation.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\MissingScreenshot.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\UndocumentedDelay.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\EmptyCatchBlock.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\VariableNamingConvention.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\ArgumentNamingConvention.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\UndocumentedDefaultClick.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\UndocumentedDefaultType.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\LargeIdxInSelector.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\UnnecessarySequenceOrFlowchart.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\UndocumentedUnreachableActivities.xaml</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CheckBestPractices\Checks\ProjectJsonConfigurationFile.xaml</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2255,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC94E0F-66AD-4ECB-A9C2-26293DFAAC50}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2272,19 +2264,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -2298,20 +2290,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="93.75">
@@ -2319,20 +2311,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="112.5">
@@ -2340,20 +2332,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="131.25">
@@ -2361,20 +2353,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="131.25">
@@ -2382,22 +2374,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="131.25">
@@ -2405,22 +2397,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="150">
@@ -2428,20 +2420,20 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="150">
@@ -2449,20 +2441,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="206.25">
@@ -2470,22 +2462,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="187.5">
@@ -2493,20 +2485,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="112.5">
@@ -2514,20 +2506,20 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2791,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3B754-2F91-4B5D-866B-FF6D6F8A7738}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2807,10 +2799,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -2819,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -2833,20 +2825,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
